--- a/Requirements_Analysis_VTLC_Version1.xlsx
+++ b/Requirements_Analysis_VTLC_Version1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAST359\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Virtual-Traffic-Light-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16EC9C9-6FA2-4FCE-BB34-6AD1C6EEAEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E63437-2693-4D64-B3DF-06D4B5060B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -146,13 +146,40 @@
   </si>
   <si>
     <t>REQ-012</t>
+  </si>
+  <si>
+    <t>Project Title</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Virtual Traffic Light Controller (FSM)</t>
+  </si>
+  <si>
+    <t>Keerthana</t>
+  </si>
+  <si>
+    <t>In Review</t>
+  </si>
+  <si>
+    <t>Shivaraj Kumar, Prateeksha Jain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,16 +195,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,14 +249,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,231 +601,279 @@
     <col min="5" max="5" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="3"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirements_Analysis_VTLC_Version1.xlsx
+++ b/Requirements_Analysis_VTLC_Version1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Virtual-Traffic-Light-Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iastsoftware20-my.sharepoint.com/personal/shivarajkumar_iast-software_com/Documents/Documents/shivaraj/Assignments_Works/VersionControl/Virtual-Traffic-Light-Controller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E63437-2693-4D64-B3DF-06D4B5060B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A1E63437-2693-4D64-B3DF-06D4B5060B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F52BAAAE-6F56-4985-8E70-B3E343E06F8F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,10 +169,10 @@
     <t>Keerthana</t>
   </si>
   <si>
-    <t>In Review</t>
-  </si>
-  <si>
     <t>Shivaraj Kumar, Prateeksha Jain</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -271,18 +271,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +591,7 @@
   <dimension ref="A2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,47 +602,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
